--- a/bbb.xlsx
+++ b/bbb.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,1612 +423,2032 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B1" t="n">
-        <v>19.26</v>
+        <v>19.67</v>
       </c>
       <c r="C1" t="n">
-        <v>7.56</v>
+        <v>7.09</v>
       </c>
       <c r="D1" t="n">
-        <v>7.24</v>
+        <v>5.85</v>
       </c>
       <c r="E1" t="n">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="F1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G1" t="n">
-        <v>63</v>
+        <v>8</v>
+      </c>
+      <c r="H1" t="n">
+        <v>26</v>
+      </c>
+      <c r="I1" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B2" t="n">
-        <v>22.52</v>
+        <v>17.8</v>
       </c>
       <c r="C2" t="n">
-        <v>7.98</v>
+        <v>6.81</v>
       </c>
       <c r="D2" t="n">
-        <v>6.89</v>
+        <v>6.1</v>
       </c>
       <c r="E2" t="n">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>11</v>
+      </c>
+      <c r="H2" t="n">
+        <v>62</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>19.67</v>
+        <v>19.24</v>
       </c>
       <c r="C3" t="n">
-        <v>7.28</v>
+        <v>6.47</v>
       </c>
       <c r="D3" t="n">
-        <v>7.01</v>
+        <v>6.45</v>
       </c>
       <c r="E3" t="n">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="H3" t="n">
+        <v>54</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>18.65</v>
+        <v>18.39</v>
       </c>
       <c r="C4" t="n">
-        <v>6.94</v>
+        <v>7.12</v>
       </c>
       <c r="D4" t="n">
-        <v>6.51</v>
+        <v>6.35</v>
       </c>
       <c r="E4" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="H4" t="n">
+        <v>38</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B5" t="n">
-        <v>20.15</v>
+        <v>20.45</v>
       </c>
       <c r="C5" t="n">
-        <v>7.25</v>
+        <v>7.23</v>
       </c>
       <c r="D5" t="n">
-        <v>6.22</v>
+        <v>6.52</v>
       </c>
       <c r="E5" t="n">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="H5" t="n">
+        <v>52</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B6" t="n">
-        <v>22.72</v>
+        <v>18.02</v>
       </c>
       <c r="C6" t="n">
-        <v>6.88</v>
+        <v>7.55</v>
       </c>
       <c r="D6" t="n">
-        <v>6.28</v>
+        <v>6.92</v>
       </c>
       <c r="E6" t="n">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>53</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="B7" t="n">
-        <v>19.67</v>
+        <v>22.44</v>
       </c>
       <c r="C7" t="n">
-        <v>7.09</v>
+        <v>7.36</v>
       </c>
       <c r="D7" t="n">
-        <v>5.85</v>
+        <v>7.29</v>
       </c>
       <c r="E7" t="n">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
+        <v>61</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>57</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E8" t="n">
+        <v>121</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
         <v>69</v>
       </c>
-      <c r="B8" t="n">
-        <v>22.44</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="E8" t="n">
-        <v>196</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>61</v>
+      <c r="I8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B9" t="n">
-        <v>19.9</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="D9" t="n">
-        <v>7.02</v>
+        <v>6.28</v>
       </c>
       <c r="E9" t="n">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>55</v>
+        <v>18</v>
+      </c>
+      <c r="H9" t="n">
+        <v>47</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" t="n">
-        <v>19.7</v>
+        <v>21.06</v>
       </c>
       <c r="C10" t="n">
-        <v>7.48</v>
+        <v>6.97</v>
       </c>
       <c r="D10" t="n">
-        <v>6.56</v>
+        <v>6.45</v>
       </c>
       <c r="E10" t="n">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="H10" t="n">
+        <v>17</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B11" t="n">
-        <v>18.06</v>
+        <v>18.65</v>
       </c>
       <c r="C11" t="n">
-        <v>7.46</v>
+        <v>6.94</v>
       </c>
       <c r="D11" t="n">
-        <v>6.18</v>
+        <v>6.51</v>
       </c>
       <c r="E11" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="H11" t="n">
+        <v>45</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="E12" t="n">
+        <v>177</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
         <v>50</v>
       </c>
-      <c r="B12" t="n">
-        <v>19.24</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="E12" t="n">
-        <v>135</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
+        <v>29</v>
+      </c>
+      <c r="I12" t="n">
         <v>10</v>
-      </c>
-      <c r="G12" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>18.64</v>
+        <v>18.01</v>
       </c>
       <c r="C13" t="n">
-        <v>6.93</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>6.06</v>
+        <v>6.78</v>
       </c>
       <c r="E13" t="n">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="H13" t="n">
+        <v>64</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B14" t="n">
-        <v>17.02</v>
+        <v>19.72</v>
       </c>
       <c r="C14" t="n">
-        <v>6.76</v>
+        <v>7.5</v>
       </c>
       <c r="D14" t="n">
-        <v>5.89</v>
+        <v>7.39</v>
       </c>
       <c r="E14" t="n">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>65</v>
+      </c>
+      <c r="H14" t="n">
+        <v>56</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>19.42</v>
+        <v>18.8</v>
       </c>
       <c r="C15" t="n">
-        <v>7.55</v>
+        <v>6.45</v>
       </c>
       <c r="D15" t="n">
-        <v>7.22</v>
+        <v>6.12</v>
       </c>
       <c r="E15" t="n">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>62</v>
+        <v>6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>27</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>19.95</v>
+        <v>20.14</v>
       </c>
       <c r="C16" t="n">
-        <v>7.13</v>
+        <v>6.74</v>
       </c>
       <c r="D16" t="n">
-        <v>7.04</v>
+        <v>6.23</v>
       </c>
       <c r="E16" t="n">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="H16" t="n">
+        <v>61</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B17" t="n">
-        <v>19.12</v>
+        <v>19.05</v>
       </c>
       <c r="C17" t="n">
-        <v>6.94</v>
+        <v>7.85</v>
       </c>
       <c r="D17" t="n">
-        <v>6.68</v>
+        <v>6.1</v>
       </c>
       <c r="E17" t="n">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>34</v>
+      </c>
+      <c r="H17" t="n">
         <v>10</v>
       </c>
-      <c r="G17" t="n">
-        <v>39</v>
+      <c r="I17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B18" t="n">
-        <v>21.06</v>
+        <v>20.66</v>
       </c>
       <c r="C18" t="n">
-        <v>6.97</v>
+        <v>7.47</v>
       </c>
       <c r="D18" t="n">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="E18" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>19.53</v>
+        <v>20.52</v>
       </c>
       <c r="C19" t="n">
-        <v>7.42</v>
+        <v>7.3</v>
       </c>
       <c r="D19" t="n">
-        <v>6.05</v>
+        <v>6.74</v>
       </c>
       <c r="E19" t="n">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>21</v>
+        <v>46</v>
+      </c>
+      <c r="H19" t="n">
+        <v>44</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>19.26</v>
+        <v>20.36</v>
       </c>
       <c r="C20" t="n">
-        <v>6.39</v>
+        <v>7.82</v>
       </c>
       <c r="D20" t="n">
-        <v>6.24</v>
+        <v>6.9</v>
       </c>
       <c r="E20" t="n">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>57</v>
+      </c>
+      <c r="H20" t="n">
+        <v>57</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>19.45</v>
+        <v>19.26</v>
       </c>
       <c r="C21" t="n">
-        <v>6.8</v>
+        <v>7.56</v>
       </c>
       <c r="D21" t="n">
-        <v>5.95</v>
+        <v>7.24</v>
       </c>
       <c r="E21" t="n">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
+        <v>63</v>
+      </c>
+      <c r="H21" t="n">
+        <v>63</v>
+      </c>
+      <c r="I21" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B22" t="n">
-        <v>18.93</v>
+        <v>18.64</v>
       </c>
       <c r="C22" t="n">
-        <v>8.26</v>
+        <v>6.93</v>
       </c>
       <c r="D22" t="n">
-        <v>6.77</v>
+        <v>6.06</v>
       </c>
       <c r="E22" t="n">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>13</v>
+      </c>
+      <c r="H22" t="n">
+        <v>19</v>
+      </c>
+      <c r="I22" t="n">
         <v>10</v>
-      </c>
-      <c r="G22" t="n">
-        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B23" t="n">
-        <v>21.36</v>
+        <v>18.3</v>
       </c>
       <c r="C23" t="n">
-        <v>7.74</v>
+        <v>6.75</v>
       </c>
       <c r="D23" t="n">
-        <v>6.81</v>
+        <v>6.18</v>
       </c>
       <c r="E23" t="n">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="H23" t="n">
+        <v>40</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B24" t="n">
-        <v>19.83</v>
+        <v>20.06</v>
       </c>
       <c r="C24" t="n">
-        <v>7.67</v>
+        <v>7.36</v>
       </c>
       <c r="D24" t="n">
-        <v>6.74</v>
+        <v>6.1</v>
       </c>
       <c r="E24" t="n">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="H24" t="n">
+        <v>60</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B25" t="n">
-        <v>19.05</v>
+        <v>19.74</v>
       </c>
       <c r="C25" t="n">
-        <v>7.85</v>
+        <v>7.25</v>
       </c>
       <c r="D25" t="n">
-        <v>6.1</v>
+        <v>6.38</v>
       </c>
       <c r="E25" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B26" t="n">
-        <v>19.87</v>
+        <v>21.02</v>
       </c>
       <c r="C26" t="n">
-        <v>6.56</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>6.49</v>
+        <v>6.79</v>
       </c>
       <c r="E26" t="n">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>42</v>
+      </c>
+      <c r="H26" t="n">
+        <v>65</v>
+      </c>
+      <c r="I26" t="n">
         <v>6</v>
-      </c>
-      <c r="G26" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B27" t="n">
-        <v>17.8</v>
+        <v>19.58</v>
       </c>
       <c r="C27" t="n">
-        <v>6.81</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>6.1</v>
+        <v>6.77</v>
       </c>
       <c r="E27" t="n">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G27" t="n">
-        <v>11</v>
+        <v>58</v>
+      </c>
+      <c r="H27" t="n">
+        <v>14</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B28" t="n">
-        <v>16.67</v>
+        <v>19.02</v>
       </c>
       <c r="C28" t="n">
-        <v>6.29</v>
+        <v>7.36</v>
       </c>
       <c r="D28" t="n">
-        <v>6.1</v>
+        <v>7.35</v>
       </c>
       <c r="E28" t="n">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B29" t="n">
-        <v>20.62</v>
+        <v>18.05</v>
       </c>
       <c r="C29" t="n">
-        <v>8.619999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="D29" t="n">
-        <v>7.1</v>
+        <v>5.85</v>
       </c>
       <c r="E29" t="n">
-        <v>217</v>
+        <v>104</v>
       </c>
       <c r="F29" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>41</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B30" t="n">
-        <v>18.02</v>
+        <v>22.72</v>
       </c>
       <c r="C30" t="n">
-        <v>7.55</v>
+        <v>6.88</v>
       </c>
       <c r="D30" t="n">
-        <v>6.92</v>
+        <v>6.28</v>
       </c>
       <c r="E30" t="n">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>53</v>
+        <v>20</v>
+      </c>
+      <c r="H30" t="n">
+        <v>11</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B31" t="n">
-        <v>20.52</v>
+        <v>19.87</v>
       </c>
       <c r="C31" t="n">
-        <v>7.3</v>
+        <v>6.56</v>
       </c>
       <c r="D31" t="n">
-        <v>6.74</v>
+        <v>6.49</v>
       </c>
       <c r="E31" t="n">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G31" t="n">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="H31" t="n">
+        <v>53</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>18.39</v>
+        <v>18.86</v>
       </c>
       <c r="C32" t="n">
-        <v>7.12</v>
+        <v>7.53</v>
       </c>
       <c r="D32" t="n">
-        <v>6.35</v>
+        <v>6.34</v>
       </c>
       <c r="E32" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G32" t="n">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="H32" t="n">
+        <v>59</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B33" t="n">
-        <v>19.43</v>
+        <v>19.25</v>
       </c>
       <c r="C33" t="n">
-        <v>7.12</v>
+        <v>7.56</v>
       </c>
       <c r="D33" t="n">
-        <v>6.18</v>
+        <v>6.58</v>
       </c>
       <c r="E33" t="n">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="H33" t="n">
+        <v>30</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B34" t="n">
-        <v>20.36</v>
+        <v>18.93</v>
       </c>
       <c r="C34" t="n">
-        <v>6.72</v>
+        <v>8.26</v>
       </c>
       <c r="D34" t="n">
-        <v>6.15</v>
+        <v>6.77</v>
       </c>
       <c r="E34" t="n">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>12</v>
+        <v>59</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B35" t="n">
-        <v>18.25</v>
+        <v>20.62</v>
       </c>
       <c r="C35" t="n">
-        <v>6.6</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>6.05</v>
+        <v>7.1</v>
       </c>
       <c r="E35" t="n">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="F35" t="n">
+        <v>9</v>
+      </c>
+      <c r="G35" t="n">
+        <v>68</v>
+      </c>
+      <c r="H35" t="n">
+        <v>35</v>
+      </c>
+      <c r="I35" t="n">
         <v>6</v>
-      </c>
-      <c r="G35" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="B36" t="n">
-        <v>24.03</v>
+        <v>18.07</v>
       </c>
       <c r="C36" t="n">
-        <v>8.15</v>
+        <v>6.31</v>
       </c>
       <c r="D36" t="n">
-        <v>7.25</v>
+        <v>5.94</v>
       </c>
       <c r="E36" t="n">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="F36" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>48</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="B37" t="n">
-        <v>18.69</v>
+        <v>18.4</v>
       </c>
       <c r="C37" t="n">
-        <v>8.199999999999999</v>
+        <v>6.78</v>
       </c>
       <c r="D37" t="n">
-        <v>6.55</v>
+        <v>6.18</v>
       </c>
       <c r="E37" t="n">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B38" t="n">
-        <v>21.02</v>
+        <v>18.94</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="D38" t="n">
-        <v>6.79</v>
+        <v>6.35</v>
       </c>
       <c r="E38" t="n">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="F38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" t="n">
+        <v>24</v>
+      </c>
+      <c r="H38" t="n">
+        <v>32</v>
+      </c>
+      <c r="I38" t="n">
         <v>3</v>
-      </c>
-      <c r="G38" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B39" t="n">
-        <v>19.2</v>
+        <v>19.12</v>
       </c>
       <c r="C39" t="n">
-        <v>6.7</v>
+        <v>6.94</v>
       </c>
       <c r="D39" t="n">
-        <v>6.47</v>
+        <v>6.68</v>
       </c>
       <c r="E39" t="n">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F39" t="n">
         <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="H39" t="n">
+        <v>66</v>
+      </c>
+      <c r="I39" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B40" t="n">
-        <v>18.94</v>
+        <v>19.83</v>
       </c>
       <c r="C40" t="n">
-        <v>6.8</v>
+        <v>7.67</v>
       </c>
       <c r="D40" t="n">
-        <v>6.35</v>
+        <v>6.74</v>
       </c>
       <c r="E40" t="n">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G40" t="n">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="H40" t="n">
+        <v>23</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B41" t="n">
-        <v>18.4</v>
+        <v>19.67</v>
       </c>
       <c r="C41" t="n">
-        <v>6.78</v>
+        <v>7.28</v>
       </c>
       <c r="D41" t="n">
-        <v>6.18</v>
+        <v>7.01</v>
       </c>
       <c r="E41" t="n">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+      <c r="I41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B42" t="n">
-        <v>18.8</v>
+        <v>20.38</v>
       </c>
       <c r="C42" t="n">
-        <v>6.45</v>
+        <v>8.07</v>
       </c>
       <c r="D42" t="n">
-        <v>6.12</v>
+        <v>7.28</v>
       </c>
       <c r="E42" t="n">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="F42" t="n">
         <v>7</v>
       </c>
       <c r="G42" t="n">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="H42" t="n">
+        <v>49</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>20.38</v>
+        <v>17.02</v>
       </c>
       <c r="C43" t="n">
-        <v>8.07</v>
+        <v>6.76</v>
       </c>
       <c r="D43" t="n">
-        <v>7.28</v>
+        <v>5.89</v>
       </c>
       <c r="E43" t="n">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="F43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>55</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B44" t="n">
-        <v>19.32</v>
+        <v>21.05</v>
       </c>
       <c r="C44" t="n">
-        <v>8.02</v>
+        <v>6.62</v>
       </c>
       <c r="D44" t="n">
-        <v>6.73</v>
+        <v>6.34</v>
       </c>
       <c r="E44" t="n">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G44" t="n">
-        <v>54</v>
+        <v>17</v>
+      </c>
+      <c r="H44" t="n">
+        <v>68</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
+        <v>55</v>
+      </c>
+      <c r="B45" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="E45" t="n">
+        <v>138</v>
+      </c>
+      <c r="F45" t="n">
+        <v>7</v>
+      </c>
+      <c r="G45" t="n">
         <v>26</v>
       </c>
-      <c r="B45" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="C45" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="D45" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="E45" t="n">
-        <v>164</v>
-      </c>
-      <c r="F45" t="n">
-        <v>5</v>
-      </c>
-      <c r="G45" t="n">
-        <v>44</v>
+      <c r="H45" t="n">
+        <v>39</v>
+      </c>
+      <c r="I45" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="B46" t="n">
-        <v>20.66</v>
+        <v>18.06</v>
       </c>
       <c r="C46" t="n">
-        <v>7.47</v>
+        <v>7.46</v>
       </c>
       <c r="D46" t="n">
-        <v>6.5</v>
+        <v>6.18</v>
       </c>
       <c r="E46" t="n">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="H46" t="n">
+        <v>31</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B47" t="n">
-        <v>18.02</v>
+        <v>17.67</v>
       </c>
       <c r="C47" t="n">
-        <v>6.61</v>
+        <v>8.02</v>
       </c>
       <c r="D47" t="n">
-        <v>6.47</v>
+        <v>6.41</v>
       </c>
       <c r="E47" t="n">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G47" t="n">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="H47" t="n">
+        <v>37</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B48" t="n">
-        <v>18.3</v>
+        <v>18.69</v>
       </c>
       <c r="C48" t="n">
-        <v>6.75</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>6.18</v>
+        <v>6.55</v>
       </c>
       <c r="E48" t="n">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="H48" t="n">
+        <v>43</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B49" t="n">
-        <v>18.07</v>
+        <v>24.03</v>
       </c>
       <c r="C49" t="n">
-        <v>6.31</v>
+        <v>8.15</v>
       </c>
       <c r="D49" t="n">
-        <v>5.94</v>
+        <v>7.25</v>
       </c>
       <c r="E49" t="n">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="H49" t="n">
+        <v>28</v>
+      </c>
+      <c r="I49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B50" t="n">
-        <v>19.15</v>
+        <v>16.67</v>
       </c>
       <c r="C50" t="n">
-        <v>8.1</v>
+        <v>6.29</v>
       </c>
       <c r="D50" t="n">
-        <v>7.35</v>
+        <v>6.1</v>
       </c>
       <c r="E50" t="n">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
-        <v>69</v>
+        <v>2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>34</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
+        <v>65</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="E51" t="n">
+        <v>127</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" t="n">
         <v>12</v>
       </c>
-      <c r="B51" t="n">
-        <v>19.58</v>
-      </c>
-      <c r="C51" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="D51" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="E51" t="n">
-        <v>188</v>
-      </c>
-      <c r="F51" t="n">
-        <v>9</v>
-      </c>
-      <c r="G51" t="n">
-        <v>58</v>
+      <c r="H51" t="n">
+        <v>33</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B52" t="n">
-        <v>20.56</v>
+        <v>24</v>
       </c>
       <c r="C52" t="n">
-        <v>6.88</v>
+        <v>6.58</v>
       </c>
       <c r="D52" t="n">
-        <v>6.87</v>
+        <v>6.5</v>
       </c>
       <c r="E52" t="n">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G52" t="n">
-        <v>43</v>
+        <v>27</v>
+      </c>
+      <c r="H52" t="n">
+        <v>25</v>
+      </c>
+      <c r="I52" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B53" t="n">
-        <v>20.45</v>
+        <v>19.2</v>
       </c>
       <c r="C53" t="n">
-        <v>7.23</v>
+        <v>6.7</v>
       </c>
       <c r="D53" t="n">
-        <v>6.52</v>
+        <v>6.47</v>
       </c>
       <c r="E53" t="n">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B54" t="n">
-        <v>20.06</v>
+        <v>20.56</v>
       </c>
       <c r="C54" t="n">
-        <v>7.36</v>
+        <v>6.88</v>
       </c>
       <c r="D54" t="n">
-        <v>6.1</v>
+        <v>6.87</v>
       </c>
       <c r="E54" t="n">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="F54" t="n">
         <v>4</v>
       </c>
       <c r="G54" t="n">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="H54" t="n">
+        <v>58</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B55" t="n">
-        <v>20.14</v>
+        <v>21.36</v>
       </c>
       <c r="C55" t="n">
-        <v>6.74</v>
+        <v>7.74</v>
       </c>
       <c r="D55" t="n">
-        <v>6.23</v>
+        <v>6.81</v>
       </c>
       <c r="E55" t="n">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="F55" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>16</v>
+        <v>52</v>
+      </c>
+      <c r="H55" t="n">
+        <v>22</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B56" t="n">
-        <v>18.05</v>
+        <v>19.15</v>
       </c>
       <c r="C56" t="n">
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="D56" t="n">
-        <v>5.85</v>
+        <v>7.35</v>
       </c>
       <c r="E56" t="n">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="H56" t="n">
+        <v>42</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B57" t="n">
-        <v>19.02</v>
+        <v>19.45</v>
       </c>
       <c r="C57" t="n">
-        <v>7.36</v>
+        <v>6.8</v>
       </c>
       <c r="D57" t="n">
-        <v>7.35</v>
+        <v>5.95</v>
       </c>
       <c r="E57" t="n">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="F57" t="n">
         <v>5</v>
       </c>
       <c r="G57" t="n">
-        <v>64</v>
+        <v>4</v>
+      </c>
+      <c r="H57" t="n">
+        <v>20</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B58" t="n">
-        <v>20.36</v>
+        <v>19.37</v>
       </c>
       <c r="C58" t="n">
-        <v>7.82</v>
+        <v>6.93</v>
       </c>
       <c r="D58" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="E58" t="n">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>57</v>
+        <v>10</v>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+      <c r="I58" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B59" t="n">
-        <v>17.67</v>
+        <v>19.53</v>
       </c>
       <c r="C59" t="n">
-        <v>8.02</v>
+        <v>7.42</v>
       </c>
       <c r="D59" t="n">
-        <v>6.41</v>
+        <v>6.05</v>
       </c>
       <c r="E59" t="n">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="F59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="H59" t="n">
+        <v>18</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B60" t="n">
-        <v>18.86</v>
+        <v>20.15</v>
       </c>
       <c r="C60" t="n">
-        <v>7.53</v>
+        <v>7.25</v>
       </c>
       <c r="D60" t="n">
-        <v>6.34</v>
+        <v>6.22</v>
       </c>
       <c r="E60" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F60" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="H60" t="n">
+        <v>24</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B61" t="n">
-        <v>24</v>
+        <v>21.82</v>
       </c>
       <c r="C61" t="n">
-        <v>6.58</v>
+        <v>8.33</v>
       </c>
       <c r="D61" t="n">
-        <v>6.5</v>
+        <v>6.32</v>
       </c>
       <c r="E61" t="n">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="F61" t="n">
         <v>8</v>
       </c>
       <c r="G61" t="n">
-        <v>27</v>
+        <v>47</v>
+      </c>
+      <c r="H61" t="n">
+        <v>51</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B62" t="n">
-        <v>18</v>
+        <v>19.32</v>
       </c>
       <c r="C62" t="n">
-        <v>6.8</v>
+        <v>8.02</v>
       </c>
       <c r="D62" t="n">
-        <v>6.28</v>
+        <v>6.73</v>
       </c>
       <c r="E62" t="n">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="F62" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G62" t="n">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="H62" t="n">
+        <v>36</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B63" t="n">
-        <v>20.26</v>
+        <v>22.52</v>
       </c>
       <c r="C63" t="n">
-        <v>6.84</v>
+        <v>7.98</v>
       </c>
       <c r="D63" t="n">
-        <v>5.95</v>
+        <v>6.89</v>
       </c>
       <c r="E63" t="n">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="F63" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="H63" t="n">
+        <v>50</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B64" t="n">
-        <v>19.72</v>
+        <v>18.25</v>
       </c>
       <c r="C64" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="D64" t="n">
-        <v>7.39</v>
+        <v>6.05</v>
       </c>
       <c r="E64" t="n">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="F64" t="n">
         <v>6</v>
       </c>
       <c r="G64" t="n">
-        <v>65</v>
+        <v>5</v>
+      </c>
+      <c r="H64" t="n">
+        <v>13</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B65" t="n">
-        <v>18.01</v>
+        <v>19.26</v>
       </c>
       <c r="C65" t="n">
-        <v>8.039999999999999</v>
+        <v>6.39</v>
       </c>
       <c r="D65" t="n">
-        <v>6.78</v>
+        <v>6.24</v>
       </c>
       <c r="E65" t="n">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="F65" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>56</v>
+        <v>9</v>
+      </c>
+      <c r="H65" t="n">
+        <v>12</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B66" t="n">
-        <v>21.82</v>
+        <v>19.43</v>
       </c>
       <c r="C66" t="n">
-        <v>8.33</v>
+        <v>7.12</v>
       </c>
       <c r="D66" t="n">
-        <v>6.32</v>
+        <v>6.18</v>
       </c>
       <c r="E66" t="n">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="F66" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>47</v>
+        <v>22</v>
+      </c>
+      <c r="H66" t="n">
+        <v>46</v>
+      </c>
+      <c r="I66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B67" t="n">
-        <v>19.74</v>
+        <v>17.62</v>
       </c>
       <c r="C67" t="n">
-        <v>7.25</v>
+        <v>6.92</v>
       </c>
       <c r="D67" t="n">
-        <v>6.38</v>
+        <v>6.35</v>
       </c>
       <c r="E67" t="n">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F67" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G67" t="n">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="H67" t="n">
+        <v>67</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B68" t="n">
-        <v>17.62</v>
+        <v>19.7</v>
       </c>
       <c r="C68" t="n">
-        <v>6.92</v>
+        <v>7.48</v>
       </c>
       <c r="D68" t="n">
-        <v>6.35</v>
+        <v>6.56</v>
       </c>
       <c r="E68" t="n">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F68" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="H68" t="n">
+        <v>16</v>
+      </c>
+      <c r="I68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B69" t="n">
-        <v>21.05</v>
+        <v>19.9</v>
       </c>
       <c r="C69" t="n">
-        <v>6.62</v>
+        <v>7.4</v>
       </c>
       <c r="D69" t="n">
-        <v>6.34</v>
+        <v>7.02</v>
       </c>
       <c r="E69" t="n">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="F69" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G69" t="n">
-        <v>17</v>
+        <v>55</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B70" t="n">
-        <v>19.37</v>
+        <v>19.42</v>
       </c>
       <c r="C70" t="n">
-        <v>6.93</v>
+        <v>7.55</v>
       </c>
       <c r="D70" t="n">
-        <v>6</v>
+        <v>7.22</v>
       </c>
       <c r="E70" t="n">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="H70" t="n">
+        <v>21</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/bbb.xlsx
+++ b/bbb.xlsx
@@ -452,28 +452,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B2" t="n">
-        <v>17.8</v>
+        <v>19.26</v>
       </c>
       <c r="C2" t="n">
-        <v>6.81</v>
+        <v>6.39</v>
       </c>
       <c r="D2" t="n">
-        <v>6.1</v>
+        <v>6.24</v>
       </c>
       <c r="E2" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
@@ -481,31 +481,31 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" t="n">
-        <v>19.24</v>
+        <v>22.72</v>
       </c>
       <c r="C3" t="n">
-        <v>6.47</v>
+        <v>6.88</v>
       </c>
       <c r="D3" t="n">
-        <v>6.45</v>
+        <v>6.28</v>
       </c>
       <c r="E3" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -539,60 +539,60 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B5" t="n">
-        <v>20.45</v>
+        <v>20.66</v>
       </c>
       <c r="C5" t="n">
-        <v>7.23</v>
+        <v>7.47</v>
       </c>
       <c r="D5" t="n">
-        <v>6.52</v>
+        <v>6.5</v>
       </c>
       <c r="E5" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
-      <c r="G5" t="n">
-        <v>38</v>
-      </c>
-      <c r="H5" t="n">
-        <v>52</v>
-      </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B6" t="n">
-        <v>18.02</v>
+        <v>19.9</v>
       </c>
       <c r="C6" t="n">
-        <v>7.55</v>
+        <v>7.4</v>
       </c>
       <c r="D6" t="n">
-        <v>6.92</v>
+        <v>7.02</v>
       </c>
       <c r="E6" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -684,89 +684,89 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B10" t="n">
-        <v>21.06</v>
+        <v>19.2</v>
       </c>
       <c r="C10" t="n">
-        <v>6.97</v>
+        <v>6.7</v>
       </c>
       <c r="D10" t="n">
-        <v>6.45</v>
+        <v>6.47</v>
       </c>
       <c r="E10" t="n">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="n">
+        <v>29</v>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
-      <c r="G10" t="n">
-        <v>33</v>
-      </c>
-      <c r="H10" t="n">
-        <v>17</v>
-      </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B11" t="n">
-        <v>18.65</v>
+        <v>20.45</v>
       </c>
       <c r="C11" t="n">
-        <v>6.94</v>
+        <v>7.23</v>
       </c>
       <c r="D11" t="n">
-        <v>6.51</v>
+        <v>6.52</v>
       </c>
       <c r="E11" t="n">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H11" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.95</v>
+        <v>21.36</v>
       </c>
       <c r="C12" t="n">
-        <v>7.13</v>
+        <v>7.74</v>
       </c>
       <c r="D12" t="n">
-        <v>7.04</v>
+        <v>6.81</v>
       </c>
       <c r="E12" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H12" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -800,31 +800,31 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B14" t="n">
-        <v>19.72</v>
+        <v>19.26</v>
       </c>
       <c r="C14" t="n">
-        <v>7.5</v>
+        <v>7.56</v>
       </c>
       <c r="D14" t="n">
-        <v>7.39</v>
+        <v>7.24</v>
       </c>
       <c r="E14" t="n">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H14" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -858,216 +858,216 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B16" t="n">
-        <v>20.14</v>
+        <v>18.3</v>
       </c>
       <c r="C16" t="n">
-        <v>6.74</v>
+        <v>6.75</v>
       </c>
       <c r="D16" t="n">
-        <v>6.23</v>
+        <v>6.18</v>
       </c>
       <c r="E16" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>19.05</v>
+        <v>18.06</v>
       </c>
       <c r="C17" t="n">
-        <v>7.85</v>
+        <v>7.46</v>
       </c>
       <c r="D17" t="n">
-        <v>6.1</v>
+        <v>6.18</v>
       </c>
       <c r="E17" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n">
-        <v>20.66</v>
+        <v>19.12</v>
       </c>
       <c r="C18" t="n">
-        <v>7.47</v>
+        <v>6.94</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5</v>
+        <v>6.68</v>
       </c>
       <c r="E18" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19" t="n">
-        <v>20.52</v>
+        <v>19.25</v>
       </c>
       <c r="C19" t="n">
-        <v>7.3</v>
+        <v>7.56</v>
       </c>
       <c r="D19" t="n">
-        <v>6.74</v>
+        <v>6.58</v>
       </c>
       <c r="E19" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H19" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>20.36</v>
+        <v>19.58</v>
       </c>
       <c r="C20" t="n">
-        <v>7.82</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>6.9</v>
+        <v>6.77</v>
       </c>
       <c r="E20" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H20" t="n">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B21" t="n">
-        <v>19.26</v>
+        <v>19.72</v>
       </c>
       <c r="C21" t="n">
-        <v>7.56</v>
+        <v>7.5</v>
       </c>
       <c r="D21" t="n">
-        <v>7.24</v>
+        <v>7.39</v>
       </c>
       <c r="E21" t="n">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H21" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B22" t="n">
-        <v>18.64</v>
+        <v>19.37</v>
       </c>
       <c r="C22" t="n">
         <v>6.93</v>
       </c>
       <c r="D22" t="n">
-        <v>6.06</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B23" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C23" t="n">
-        <v>6.75</v>
+        <v>6.78</v>
       </c>
       <c r="D23" t="n">
         <v>6.18</v>
@@ -1076,216 +1076,216 @@
         <v>129</v>
       </c>
       <c r="F23" t="n">
+        <v>6</v>
+      </c>
+      <c r="G23" t="n">
+        <v>15</v>
+      </c>
+      <c r="H23" t="n">
         <v>5</v>
       </c>
-      <c r="G23" t="n">
-        <v>14</v>
-      </c>
-      <c r="H23" t="n">
-        <v>40</v>
-      </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B24" t="n">
-        <v>20.06</v>
+        <v>18.94</v>
       </c>
       <c r="C24" t="n">
-        <v>7.36</v>
+        <v>6.8</v>
       </c>
       <c r="D24" t="n">
-        <v>6.1</v>
+        <v>6.35</v>
       </c>
       <c r="E24" t="n">
         <v>137</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H24" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B25" t="n">
-        <v>19.74</v>
+        <v>18.65</v>
       </c>
       <c r="C25" t="n">
-        <v>7.25</v>
+        <v>6.94</v>
       </c>
       <c r="D25" t="n">
-        <v>6.38</v>
+        <v>6.51</v>
       </c>
       <c r="E25" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" t="n">
-        <v>21.02</v>
+        <v>21.82</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>8.33</v>
       </c>
       <c r="D26" t="n">
-        <v>6.79</v>
+        <v>6.32</v>
       </c>
       <c r="E26" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H26" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>19.58</v>
+        <v>20.36</v>
       </c>
       <c r="C27" t="n">
-        <v>8.199999999999999</v>
+        <v>7.82</v>
       </c>
       <c r="D27" t="n">
-        <v>6.77</v>
+        <v>6.9</v>
       </c>
       <c r="E27" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" t="n">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B28" t="n">
-        <v>19.02</v>
+        <v>24.03</v>
       </c>
       <c r="C28" t="n">
-        <v>7.36</v>
+        <v>8.15</v>
       </c>
       <c r="D28" t="n">
-        <v>7.35</v>
+        <v>7.25</v>
       </c>
       <c r="E28" t="n">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>18.05</v>
+        <v>18.07</v>
       </c>
       <c r="C29" t="n">
-        <v>6.1</v>
+        <v>6.31</v>
       </c>
       <c r="D29" t="n">
-        <v>5.85</v>
+        <v>5.94</v>
       </c>
       <c r="E29" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
         <v>1</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>22.72</v>
+        <v>20.14</v>
       </c>
       <c r="C30" t="n">
-        <v>6.88</v>
+        <v>6.74</v>
       </c>
       <c r="D30" t="n">
-        <v>6.28</v>
+        <v>6.23</v>
       </c>
       <c r="E30" t="n">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G30" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H30" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -1293,31 +1293,31 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B31" t="n">
-        <v>19.87</v>
+        <v>19.43</v>
       </c>
       <c r="C31" t="n">
-        <v>6.56</v>
+        <v>7.12</v>
       </c>
       <c r="D31" t="n">
-        <v>6.49</v>
+        <v>6.18</v>
       </c>
       <c r="E31" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H31" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1351,31 +1351,31 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>19.25</v>
+        <v>20.56</v>
       </c>
       <c r="C33" t="n">
-        <v>7.56</v>
+        <v>6.88</v>
       </c>
       <c r="D33" t="n">
-        <v>6.58</v>
+        <v>6.87</v>
       </c>
       <c r="E33" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H33" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1409,234 +1409,234 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>20.62</v>
+        <v>19.02</v>
       </c>
       <c r="C35" t="n">
-        <v>8.619999999999999</v>
+        <v>7.36</v>
       </c>
       <c r="D35" t="n">
-        <v>7.1</v>
+        <v>7.35</v>
       </c>
       <c r="E35" t="n">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="F35" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G35" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H35" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" t="n">
-        <v>18.07</v>
+        <v>16.67</v>
       </c>
       <c r="C36" t="n">
-        <v>6.31</v>
+        <v>6.29</v>
       </c>
       <c r="D36" t="n">
-        <v>5.94</v>
+        <v>6.1</v>
       </c>
       <c r="E36" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
         <v>2</v>
       </c>
-      <c r="G36" t="n">
-        <v>1</v>
-      </c>
       <c r="H36" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B37" t="n">
-        <v>18.4</v>
+        <v>19.24</v>
       </c>
       <c r="C37" t="n">
-        <v>6.78</v>
+        <v>6.47</v>
       </c>
       <c r="D37" t="n">
-        <v>6.18</v>
+        <v>6.45</v>
       </c>
       <c r="E37" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H37" t="n">
+        <v>54</v>
+      </c>
+      <c r="I37" t="n">
         <v>5</v>
-      </c>
-      <c r="I37" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B38" t="n">
-        <v>18.94</v>
+        <v>19.53</v>
       </c>
       <c r="C38" t="n">
-        <v>6.8</v>
+        <v>7.42</v>
       </c>
       <c r="D38" t="n">
-        <v>6.35</v>
+        <v>6.05</v>
       </c>
       <c r="E38" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H38" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B39" t="n">
-        <v>19.12</v>
+        <v>19.74</v>
       </c>
       <c r="C39" t="n">
-        <v>6.94</v>
+        <v>7.25</v>
       </c>
       <c r="D39" t="n">
-        <v>6.68</v>
+        <v>6.38</v>
       </c>
       <c r="E39" t="n">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G39" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H39" t="n">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n">
-        <v>19.83</v>
+        <v>20.52</v>
       </c>
       <c r="C40" t="n">
-        <v>7.67</v>
+        <v>7.3</v>
       </c>
       <c r="D40" t="n">
         <v>6.74</v>
       </c>
       <c r="E40" t="n">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F40" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G40" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H40" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n">
-        <v>19.67</v>
+        <v>18.02</v>
       </c>
       <c r="C41" t="n">
-        <v>7.28</v>
+        <v>7.55</v>
       </c>
       <c r="D41" t="n">
-        <v>7.01</v>
+        <v>6.92</v>
       </c>
       <c r="E41" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H41" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I41" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B42" t="n">
-        <v>20.38</v>
+        <v>20.62</v>
       </c>
       <c r="C42" t="n">
-        <v>8.07</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>7.28</v>
+        <v>7.1</v>
       </c>
       <c r="E42" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F42" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G42" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H42" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I42" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -1699,89 +1699,89 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B45" t="n">
-        <v>18.02</v>
+        <v>24</v>
       </c>
       <c r="C45" t="n">
-        <v>6.61</v>
+        <v>6.58</v>
       </c>
       <c r="D45" t="n">
-        <v>6.47</v>
+        <v>6.5</v>
       </c>
       <c r="E45" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G45" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H45" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I45" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B46" t="n">
-        <v>18.06</v>
+        <v>20.15</v>
       </c>
       <c r="C46" t="n">
-        <v>7.46</v>
+        <v>7.25</v>
       </c>
       <c r="D46" t="n">
-        <v>6.18</v>
+        <v>6.22</v>
       </c>
       <c r="E46" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B47" t="n">
-        <v>17.67</v>
+        <v>19.83</v>
       </c>
       <c r="C47" t="n">
-        <v>8.02</v>
+        <v>7.67</v>
       </c>
       <c r="D47" t="n">
-        <v>6.41</v>
+        <v>6.74</v>
       </c>
       <c r="E47" t="n">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F47" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G47" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H47" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="I47" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -1815,234 +1815,234 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B49" t="n">
-        <v>24.03</v>
+        <v>19.15</v>
       </c>
       <c r="C49" t="n">
-        <v>8.15</v>
+        <v>8.1</v>
       </c>
       <c r="D49" t="n">
-        <v>7.25</v>
+        <v>7.35</v>
       </c>
       <c r="E49" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H49" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I49" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B50" t="n">
-        <v>16.67</v>
+        <v>18.05</v>
       </c>
       <c r="C50" t="n">
-        <v>6.29</v>
+        <v>6.1</v>
       </c>
       <c r="D50" t="n">
-        <v>6.1</v>
+        <v>5.85</v>
       </c>
       <c r="E50" t="n">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>41</v>
+      </c>
+      <c r="I50" t="n">
         <v>2</v>
-      </c>
-      <c r="H50" t="n">
-        <v>34</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B51" t="n">
-        <v>20.36</v>
+        <v>17.8</v>
       </c>
       <c r="C51" t="n">
-        <v>6.72</v>
+        <v>6.81</v>
       </c>
       <c r="D51" t="n">
-        <v>6.15</v>
+        <v>6.1</v>
       </c>
       <c r="E51" t="n">
         <v>127</v>
       </c>
       <c r="F51" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>11</v>
+      </c>
+      <c r="H51" t="n">
+        <v>62</v>
+      </c>
+      <c r="I51" t="n">
         <v>3</v>
-      </c>
-      <c r="G51" t="n">
-        <v>12</v>
-      </c>
-      <c r="H51" t="n">
-        <v>33</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B52" t="n">
-        <v>24</v>
+        <v>20.06</v>
       </c>
       <c r="C52" t="n">
-        <v>6.58</v>
+        <v>7.36</v>
       </c>
       <c r="D52" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="E52" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F52" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H52" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I52" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B53" t="n">
-        <v>19.2</v>
+        <v>21.06</v>
       </c>
       <c r="C53" t="n">
-        <v>6.7</v>
+        <v>6.97</v>
       </c>
       <c r="D53" t="n">
-        <v>6.47</v>
+        <v>6.45</v>
       </c>
       <c r="E53" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I53" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B54" t="n">
-        <v>20.56</v>
+        <v>17.67</v>
       </c>
       <c r="C54" t="n">
-        <v>6.88</v>
+        <v>8.02</v>
       </c>
       <c r="D54" t="n">
-        <v>6.87</v>
+        <v>6.41</v>
       </c>
       <c r="E54" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G54" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H54" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B55" t="n">
-        <v>21.36</v>
+        <v>19.67</v>
       </c>
       <c r="C55" t="n">
-        <v>7.74</v>
+        <v>7.28</v>
       </c>
       <c r="D55" t="n">
-        <v>6.81</v>
+        <v>7.01</v>
       </c>
       <c r="E55" t="n">
         <v>179</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H55" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B56" t="n">
-        <v>19.15</v>
+        <v>20.38</v>
       </c>
       <c r="C56" t="n">
-        <v>8.1</v>
+        <v>8.07</v>
       </c>
       <c r="D56" t="n">
-        <v>7.35</v>
+        <v>7.28</v>
       </c>
       <c r="E56" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F56" t="n">
+        <v>7</v>
+      </c>
+      <c r="G56" t="n">
+        <v>66</v>
+      </c>
+      <c r="H56" t="n">
+        <v>49</v>
+      </c>
+      <c r="I56" t="n">
         <v>10</v>
-      </c>
-      <c r="G56" t="n">
-        <v>69</v>
-      </c>
-      <c r="H56" t="n">
-        <v>42</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -2076,118 +2076,118 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B58" t="n">
-        <v>19.37</v>
+        <v>18.64</v>
       </c>
       <c r="C58" t="n">
         <v>6.93</v>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>6.06</v>
       </c>
       <c r="E58" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G58" t="n">
+        <v>13</v>
+      </c>
+      <c r="H58" t="n">
+        <v>19</v>
+      </c>
+      <c r="I58" t="n">
         <v>10</v>
-      </c>
-      <c r="H58" t="n">
-        <v>6</v>
-      </c>
-      <c r="I58" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B59" t="n">
-        <v>19.53</v>
+        <v>19.87</v>
       </c>
       <c r="C59" t="n">
-        <v>7.42</v>
+        <v>6.56</v>
       </c>
       <c r="D59" t="n">
-        <v>6.05</v>
+        <v>6.49</v>
       </c>
       <c r="E59" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G59" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H59" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I59" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B60" t="n">
-        <v>20.15</v>
+        <v>19.05</v>
       </c>
       <c r="C60" t="n">
-        <v>7.25</v>
+        <v>7.85</v>
       </c>
       <c r="D60" t="n">
-        <v>6.22</v>
+        <v>6.1</v>
       </c>
       <c r="E60" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F60" t="n">
+        <v>5</v>
+      </c>
+      <c r="G60" t="n">
+        <v>34</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+      <c r="I60" t="n">
         <v>1</v>
-      </c>
-      <c r="G60" t="n">
-        <v>30</v>
-      </c>
-      <c r="H60" t="n">
-        <v>24</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B61" t="n">
-        <v>21.82</v>
+        <v>21.02</v>
       </c>
       <c r="C61" t="n">
-        <v>8.33</v>
+        <v>7</v>
       </c>
       <c r="D61" t="n">
-        <v>6.32</v>
+        <v>6.79</v>
       </c>
       <c r="E61" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F61" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H61" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -2279,60 +2279,60 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>19.26</v>
+        <v>20.36</v>
       </c>
       <c r="C65" t="n">
-        <v>6.39</v>
+        <v>6.72</v>
       </c>
       <c r="D65" t="n">
-        <v>6.24</v>
+        <v>6.15</v>
       </c>
       <c r="E65" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H65" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B66" t="n">
-        <v>19.43</v>
+        <v>18.02</v>
       </c>
       <c r="C66" t="n">
-        <v>7.12</v>
+        <v>6.61</v>
       </c>
       <c r="D66" t="n">
-        <v>6.18</v>
+        <v>6.47</v>
       </c>
       <c r="E66" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G66" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H66" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I66" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -2395,31 +2395,31 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B69" t="n">
-        <v>19.9</v>
+        <v>19.95</v>
       </c>
       <c r="C69" t="n">
-        <v>7.4</v>
+        <v>7.13</v>
       </c>
       <c r="D69" t="n">
-        <v>7.02</v>
+        <v>7.04</v>
       </c>
       <c r="E69" t="n">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F69" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">

--- a/bbb.xlsx
+++ b/bbb.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="综合" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="统计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,14 +414,1932 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B1" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="C1" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E1" t="n">
+        <v>104</v>
+      </c>
+      <c r="F1" t="n">
+        <v>41</v>
+      </c>
+      <c r="G1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B2" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="E2" t="n">
+        <v>135</v>
+      </c>
+      <c r="F2" t="n">
+        <v>54</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B3" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="E3" t="n">
+        <v>136</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E4" t="n">
+        <v>155</v>
+      </c>
+      <c r="F4" t="n">
+        <v>66</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>87</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20.66</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>158</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>86</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="E6" t="n">
+        <v>189</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="E7" t="n">
+        <v>189</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E8" t="n">
+        <v>111</v>
+      </c>
+      <c r="F8" t="n">
+        <v>48</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>84</v>
+      </c>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="E9" t="n">
+        <v>134</v>
+      </c>
+      <c r="F9" t="n">
+        <v>47</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E10" t="n">
+        <v>136</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>77</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="E11" t="n">
+        <v>154</v>
+      </c>
+      <c r="F11" t="n">
+        <v>52</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>79</v>
+      </c>
+      <c r="B12" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="E12" t="n">
+        <v>161</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="E13" t="n">
+        <v>188</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>69</v>
+      </c>
+      <c r="B14" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="E14" t="n">
+        <v>196</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>117</v>
+      </c>
+      <c r="F15" t="n">
+        <v>34</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>27</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E16" t="n">
+        <v>133</v>
+      </c>
+      <c r="F16" t="n">
+        <v>68</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19.43</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="E17" t="n">
+        <v>136</v>
+      </c>
+      <c r="F17" t="n">
+        <v>46</v>
+      </c>
+      <c r="G17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33</v>
+      </c>
+      <c r="B18" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E18" t="n">
+        <v>151</v>
+      </c>
+      <c r="F18" t="n">
+        <v>59</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>41</v>
+      </c>
+      <c r="B19" t="n">
+        <v>21.02</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="E19" t="n">
+        <v>161</v>
+      </c>
+      <c r="F19" t="n">
+        <v>65</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31</v>
+      </c>
+      <c r="B20" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>186</v>
+      </c>
+      <c r="F20" t="n">
+        <v>57</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>24</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="E21" t="n">
+        <v>197</v>
+      </c>
+      <c r="F21" t="n">
+        <v>21</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>62</v>
+      </c>
+      <c r="B22" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E22" t="n">
+        <v>117</v>
+      </c>
+      <c r="F22" t="n">
+        <v>55</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="E23" t="n">
+        <v>131</v>
+      </c>
+      <c r="F23" t="n">
+        <v>61</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="E24" t="n">
+        <v>137</v>
+      </c>
+      <c r="F24" t="n">
+        <v>32</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60</v>
+      </c>
+      <c r="B25" t="n">
+        <v>19.74</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="E25" t="n">
+        <v>148</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20.56</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="E26" t="n">
+        <v>162</v>
+      </c>
+      <c r="F26" t="n">
+        <v>58</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="E27" t="n">
+        <v>185</v>
+      </c>
+      <c r="F27" t="n">
+        <v>64</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>46</v>
+      </c>
+      <c r="B28" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="E28" t="n">
+        <v>198</v>
+      </c>
+      <c r="F28" t="n">
+        <v>63</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>75</v>
+      </c>
+      <c r="B29" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E29" t="n">
+        <v>120</v>
+      </c>
+      <c r="F29" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66</v>
+      </c>
+      <c r="B30" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="E30" t="n">
+        <v>129</v>
+      </c>
+      <c r="F30" t="n">
+        <v>40</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>67</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>137</v>
+      </c>
+      <c r="F31" t="n">
+        <v>60</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>54</v>
+      </c>
+      <c r="B32" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="E32" t="n">
+        <v>147</v>
+      </c>
+      <c r="F32" t="n">
+        <v>45</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>26</v>
+      </c>
+      <c r="B33" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="E33" t="n">
+        <v>164</v>
+      </c>
+      <c r="F33" t="n">
+        <v>30</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>53</v>
+      </c>
+      <c r="B34" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="E34" t="n">
+        <v>182</v>
+      </c>
+      <c r="F34" t="n">
+        <v>36</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>56</v>
+      </c>
+      <c r="B35" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="E35" t="n">
+        <v>199</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>43</v>
+      </c>
+      <c r="B36" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E36" t="n">
+        <v>121</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>80</v>
+      </c>
+      <c r="B37" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="E37" t="n">
+        <v>129</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>55</v>
+      </c>
+      <c r="B38" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="E38" t="n">
+        <v>138</v>
+      </c>
+      <c r="F38" t="n">
+        <v>39</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10</v>
+      </c>
+      <c r="B39" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="C39" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>146</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>44</v>
+      </c>
+      <c r="B40" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="E40" t="n">
+        <v>165</v>
+      </c>
+      <c r="F40" t="n">
+        <v>37</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C41" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="E41" t="n">
+        <v>182</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36</v>
+      </c>
+      <c r="B42" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="E42" t="n">
+        <v>205</v>
+      </c>
+      <c r="F42" t="n">
+        <v>56</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>16</v>
+      </c>
+      <c r="B43" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E43" t="n">
+        <v>121</v>
+      </c>
+      <c r="F43" t="n">
+        <v>26</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>88</v>
+      </c>
+      <c r="B44" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>127</v>
+      </c>
+      <c r="F44" t="n">
+        <v>62</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>8</v>
+      </c>
+      <c r="B45" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="E45" t="n">
+        <v>138</v>
+      </c>
+      <c r="F45" t="n">
+        <v>53</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>78</v>
+      </c>
+      <c r="B46" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="E46" t="n">
+        <v>145</v>
+      </c>
+      <c r="F46" t="n">
+        <v>17</v>
+      </c>
+      <c r="G46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>22</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="C47" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="E47" t="n">
+        <v>166</v>
+      </c>
+      <c r="F47" t="n">
+        <v>44</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>23</v>
+      </c>
+      <c r="B48" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="D48" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="E48" t="n">
+        <v>181</v>
+      </c>
+      <c r="F48" t="n">
+        <v>15</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>71</v>
+      </c>
+      <c r="B49" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E49" t="n">
+        <v>214</v>
+      </c>
+      <c r="F49" t="n">
+        <v>28</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>17</v>
+      </c>
+      <c r="B50" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D50" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="E50" t="n">
+        <v>121</v>
+      </c>
+      <c r="F50" t="n">
+        <v>27</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="E51" t="n">
+        <v>127</v>
+      </c>
+      <c r="F51" t="n">
+        <v>33</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>70</v>
+      </c>
+      <c r="B52" t="n">
+        <v>24</v>
+      </c>
+      <c r="C52" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>139</v>
+      </c>
+      <c r="F52" t="n">
+        <v>25</v>
+      </c>
+      <c r="G52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>15</v>
+      </c>
+      <c r="B53" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="E53" t="n">
+        <v>144</v>
+      </c>
+      <c r="F53" t="n">
+        <v>38</v>
+      </c>
+      <c r="G53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>40</v>
+      </c>
+      <c r="B54" t="n">
+        <v>21.82</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="E54" t="n">
+        <v>166</v>
+      </c>
+      <c r="F54" t="n">
+        <v>51</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>11</v>
+      </c>
+      <c r="B55" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="C55" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="E55" t="n">
+        <v>179</v>
+      </c>
+      <c r="F55" t="n">
+        <v>22</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64</v>
+      </c>
+      <c r="B56" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="C56" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="D56" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="E56" t="n">
+        <v>214</v>
+      </c>
+      <c r="F56" t="n">
+        <v>49</v>
+      </c>
+      <c r="G56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E57" t="n">
+        <v>121</v>
+      </c>
+      <c r="F57" t="n">
+        <v>69</v>
+      </c>
+      <c r="G57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>61</v>
+      </c>
+      <c r="B58" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="D58" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E58" t="n">
+        <v>127</v>
+      </c>
+      <c r="F58" t="n">
+        <v>19</v>
+      </c>
+      <c r="G58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>68</v>
+      </c>
+      <c r="B59" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="E59" t="n">
+        <v>140</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>18</v>
+      </c>
+      <c r="B60" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="C60" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="E60" t="n">
+        <v>142</v>
+      </c>
+      <c r="F60" t="n">
+        <v>31</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>32</v>
+      </c>
+      <c r="B61" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="C61" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="E61" t="n">
+        <v>174</v>
+      </c>
+      <c r="F61" t="n">
+        <v>23</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>76</v>
+      </c>
+      <c r="B62" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="C62" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="D62" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="E62" t="n">
+        <v>179</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8</v>
+      </c>
+      <c r="G62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>74</v>
+      </c>
+      <c r="B63" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="C63" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="D63" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>217</v>
+      </c>
+      <c r="F63" t="n">
+        <v>35</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>47</v>
+      </c>
+      <c r="B64" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="C64" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="E64" t="n">
+        <v>124</v>
+      </c>
+      <c r="F64" t="n">
+        <v>12</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>29</v>
+      </c>
+      <c r="B65" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="C65" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6</v>
+      </c>
+      <c r="E65" t="n">
+        <v>125</v>
+      </c>
+      <c r="F65" t="n">
+        <v>6</v>
+      </c>
+      <c r="G65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>20</v>
+      </c>
+      <c r="B66" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="C66" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D66" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="E66" t="n">
+        <v>140</v>
+      </c>
+      <c r="F66" t="n">
+        <v>24</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>25</v>
+      </c>
+      <c r="B67" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="E67" t="n">
+        <v>140</v>
+      </c>
+      <c r="F67" t="n">
+        <v>67</v>
+      </c>
+      <c r="G67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3</v>
+      </c>
+      <c r="B68" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="C68" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D68" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="E68" t="n">
+        <v>176</v>
+      </c>
+      <c r="F68" t="n">
+        <v>43</v>
+      </c>
+      <c r="G68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>9</v>
+      </c>
+      <c r="B69" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="D69" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="E69" t="n">
+        <v>177</v>
+      </c>
+      <c r="F69" t="n">
+        <v>29</v>
+      </c>
+      <c r="G69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35</v>
+      </c>
+      <c r="B70" t="n">
+        <v>19.15</v>
+      </c>
+      <c r="C70" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="E70" t="n">
+        <v>219</v>
+      </c>
+      <c r="F70" t="n">
+        <v>42</v>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B1" t="n">
+        <v>111</v>
+      </c>
+      <c r="C1" t="n">
+        <v>117</v>
+      </c>
+      <c r="D1" t="n">
+        <v>117</v>
+      </c>
+      <c r="E1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F1" t="n">
+        <v>121</v>
+      </c>
+      <c r="G1" t="n">
+        <v>121</v>
+      </c>
+      <c r="H1" t="n">
+        <v>121</v>
+      </c>
+      <c r="I1" t="n">
+        <v>121</v>
+      </c>
+      <c r="J1" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B2" t="n">
+        <v>134</v>
+      </c>
+      <c r="C2" t="n">
+        <v>133</v>
+      </c>
+      <c r="D2" t="n">
+        <v>131</v>
+      </c>
+      <c r="E2" t="n">
+        <v>129</v>
+      </c>
+      <c r="F2" t="n">
+        <v>129</v>
+      </c>
+      <c r="G2" t="n">
+        <v>127</v>
+      </c>
+      <c r="H2" t="n">
+        <v>127</v>
+      </c>
+      <c r="I2" t="n">
+        <v>127</v>
+      </c>
+      <c r="J2" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>136</v>
+      </c>
+      <c r="B3" t="n">
+        <v>136</v>
+      </c>
+      <c r="C3" t="n">
+        <v>136</v>
+      </c>
+      <c r="D3" t="n">
+        <v>137</v>
+      </c>
+      <c r="E3" t="n">
+        <v>137</v>
+      </c>
+      <c r="F3" t="n">
+        <v>138</v>
+      </c>
+      <c r="G3" t="n">
+        <v>138</v>
+      </c>
+      <c r="H3" t="n">
+        <v>139</v>
+      </c>
+      <c r="I3" t="n">
+        <v>140</v>
+      </c>
+      <c r="J3" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>155</v>
+      </c>
+      <c r="B4" t="n">
+        <v>154</v>
+      </c>
+      <c r="C4" t="n">
+        <v>151</v>
+      </c>
+      <c r="D4" t="n">
+        <v>148</v>
+      </c>
+      <c r="E4" t="n">
+        <v>147</v>
+      </c>
+      <c r="F4" t="n">
+        <v>146</v>
+      </c>
+      <c r="G4" t="n">
+        <v>145</v>
+      </c>
+      <c r="H4" t="n">
+        <v>144</v>
+      </c>
+      <c r="I4" t="n">
+        <v>142</v>
+      </c>
+      <c r="J4" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>158</v>
+      </c>
+      <c r="B5" t="n">
+        <v>161</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>162</v>
+      </c>
+      <c r="E5" t="n">
+        <v>164</v>
+      </c>
+      <c r="F5" t="n">
+        <v>165</v>
+      </c>
+      <c r="G5" t="n">
+        <v>166</v>
+      </c>
+      <c r="H5" t="n">
+        <v>166</v>
+      </c>
+      <c r="I5" t="n">
+        <v>174</v>
+      </c>
+      <c r="J5" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>189</v>
+      </c>
+      <c r="B6" t="n">
+        <v>188</v>
+      </c>
+      <c r="C6" t="n">
+        <v>186</v>
+      </c>
+      <c r="D6" t="n">
+        <v>185</v>
+      </c>
+      <c r="E6" t="n">
+        <v>182</v>
+      </c>
+      <c r="F6" t="n">
+        <v>182</v>
+      </c>
+      <c r="G6" t="n">
+        <v>181</v>
+      </c>
+      <c r="H6" t="n">
+        <v>179</v>
+      </c>
+      <c r="I6" t="n">
+        <v>179</v>
+      </c>
+      <c r="J6" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>189</v>
+      </c>
+      <c r="B7" t="n">
+        <v>196</v>
+      </c>
+      <c r="C7" t="n">
+        <v>197</v>
+      </c>
+      <c r="D7" t="n">
+        <v>198</v>
+      </c>
+      <c r="E7" t="n">
+        <v>199</v>
+      </c>
+      <c r="F7" t="n">
+        <v>205</v>
+      </c>
+      <c r="G7" t="n">
+        <v>214</v>
+      </c>
+      <c r="H7" t="n">
+        <v>214</v>
+      </c>
+      <c r="I7" t="n">
+        <v>217</v>
+      </c>
+      <c r="J7" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>152.29</v>
+      </c>
+      <c r="B8" t="n">
+        <v>154.29</v>
+      </c>
+      <c r="C8" t="n">
+        <v>154.43</v>
+      </c>
+      <c r="D8" t="n">
+        <v>154</v>
+      </c>
+      <c r="E8" t="n">
+        <v>154</v>
+      </c>
+      <c r="F8" t="n">
+        <v>155.14</v>
+      </c>
+      <c r="G8" t="n">
+        <v>156</v>
+      </c>
+      <c r="H8" t="n">
+        <v>155.71</v>
+      </c>
+      <c r="I8" t="n">
+        <v>157.14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>157.29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>